--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Dordogne/Liste_des_villes_et_villages_fleuris_de_la_Dordogne.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Dordogne/Liste_des_villes_et_villages_fleuris_de_la_Dordogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Dordogne dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Dordogne, en région Nouvelle-Aquitaine.
-En 2023, 56 communes du département figurent au palmarès du concours[1], soit six communes de plus par rapport au palmarès de 2022.
+En 2023, 56 communes du département figurent au palmarès du concours, soit six communes de plus par rapport au palmarès de 2022.
 </t>
         </is>
       </c>
@@ -512,21 +524,172 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2023 par rapport à 2022). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 56 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 56 communes sont réparties comme suit :
 4 fleurs : 2 communes. 
 3 fleurs : 8 communes.
 2 fleurs : 27 communes.
-1 fleur : 19 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Dordogne labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 19 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Dordogne labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Périgueux
 Terrasson-Lavilledieu
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Daglan
 Lanouaille
 Monpazier
@@ -535,7 +698,47 @@
 Saint-Jean-de-Côle
 Saint-Pierre-de-Frugie
 Sainte-Alvère
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bassillac et Auberoche
 Bayac
 Beauregard-de-Terrasson
@@ -563,7 +766,47 @@
 Varaignes
 Villefranche-du-Périgord
 Villetoureix
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Dordogne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abjat-sur-Bandiat
 Augignac
 Bertric-Burée
